--- a/Desafio2/Divorciados/Divorciados.xlsx
+++ b/Desafio2/Divorciados/Divorciados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="197">
   <si>
     <t>Nome</t>
   </si>
@@ -647,11 +647,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.76171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.24609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.93359375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="17.296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.76171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.76953125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="42.83984375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="53.0703125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -6505,94 +6521,6 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H134" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="J134" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K134" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="L134" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M134" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="N134" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="J135" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K135" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="L135" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M135" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="N135" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
